--- a/Income/AAPL_inc.xlsx
+++ b/Income/AAPL_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="17.6"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="17.6"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="17.6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>325208000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>293971000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>274150000000.0</v>
-      </c>
       <c r="D2" s="0" t="n">
-        <v>273524000000.0</v>
+        <v>274247000000.0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>267918000000.0</v>
+        <v>273621000000.0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>267586000000.0</v>
+        <v>268015000000.0</v>
       </c>
       <c r="G2" s="0" t="n">
+        <v>267683000000.0</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>260174000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>259034000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>258490000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>261612000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>265595000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>255274000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>247417000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>239176000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>229234000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>223507000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>220457000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>218118000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>215639000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>220288000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>227535000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>234988000000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>233715000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>224337000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>212164000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>199800000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>182795000000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>178144000000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>176035000000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>173992000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>170910000000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>169404000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>169104000000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>164687000000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>156508000000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>148812000000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>142360000000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>127841000000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>108249000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>100322000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>198607000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>180236000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>170143000000.0</v>
-      </c>
       <c r="D3" s="0" t="n">
-        <v>169798000000.0</v>
+        <v>169972000000.0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>166013000000.0</v>
+        <v>169627000000.0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>166276000000.0</v>
+        <v>165842000000.0</v>
       </c>
       <c r="G3" s="0" t="n">
+        <v>166105000000.0</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>161782000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>160871000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>160133000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>161654000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>163756000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>157588000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>152664000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>147254000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>141048000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>137439000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>135771000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>134102000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>131376000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>133290000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>136962000000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>140680000000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>140089000000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>135250000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>128023000000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>121368000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>112258000000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>109745000000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>109347000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>108902000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>106606000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>104570000000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>102300000000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>95668000000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>87846000000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>83171000000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>79791000000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>73618000000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>64431000000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>60372000000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>126601000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>113735000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>104007000000.0</v>
-      </c>
       <c r="D4" s="0" t="n">
-        <v>103726000000.0</v>
+        <v>104275000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>101905000000.0</v>
+        <v>103994000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>101310000000.0</v>
+        <v>102173000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
+        <v>101578000000.0</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>98392000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>98163000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>98357000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>99958000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>101839000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>97686000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>94753000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>91922000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>88186000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>86068000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>84686000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>84016000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>84263000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>86998000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>90573000000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>94308000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>93626000000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>89087000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>84141000000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>78432000000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>70537000000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>68399000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>66688000000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>65090000000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>64304000000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>64834000000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>66804000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>69019000000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>68662000000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>65641000000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>62569000000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>54223000000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>43818000000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>39950000000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>20161000000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>19464000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>18752000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>17884000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>17383000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>16766000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>16217000000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>15857000000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>15301000000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>14731000000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>14236000000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>13483000000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>12719000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>12117000000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>11581000000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>11154000000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>10777000000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>10512000000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>10045000000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>9695000000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>9169000000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>8576000000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>8067000000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>7533000000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>7102000000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>6606000000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>6041000000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>5523000000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>5098000000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>4795000000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>4475000000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>4213000000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>3911000000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>3633000000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>3381000000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>3120000000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>2872000000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>2612000000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>2429000000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>2278000000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>20712000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>20350000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>19916000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>19558000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>19153000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>18659000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>18245000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>17883000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>17565000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>17257000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>16705000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>16303000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>15978000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>15546000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>15261000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>14929000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>14587000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>14292000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>14194000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>14417000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>14540000000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>14577000000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>14329000000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>13782000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>13068000000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>12540000000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>11993000000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>11508000000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>11303000000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>11043000000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>10830000000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>10708000000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>10608000000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>10275000000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>10040000000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>9514000000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>8884000000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>8308000000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>7599000000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>7145000000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>88903000000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>74253000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>66288000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>67138000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>65591000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>66153000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>63930000000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>64423000000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>65491000000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>67970000000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>70898000000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>67900000000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>66056000000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>64259000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>61344000000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>59985000000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>59322000000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>59212000000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>60024000000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>62886000000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>66864000000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>71155000000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>71230000000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>67772000000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>63971000000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>59286000000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>52503000000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>51368000000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>50287000000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>49252000000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>48999000000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>49913000000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>52285000000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>55111000000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>55241000000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>53007000000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>50813000000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>43303000000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>33790000000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>30527000000.0</v>
       </c>
     </row>
@@ -990,16 +1012,14 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>2639000000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>2726000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>2873000000.0</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1176,6 +1196,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1188,120 +1213,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>10000000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>-746000000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>-68000000.0</v>
-      </c>
       <c r="D9" s="0" t="n">
-        <v>531000000.0</v>
+        <v>180000000.0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>662000000.0</v>
+        <v>779000000.0</v>
       </c>
       <c r="F9" s="0" t="n">
+        <v>910000000.0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1596000000.0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1807000000.0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1608000000.0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1913000000.0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1809000000.0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2005000000.0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2499000000.0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>2367000000.0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2680000000.0</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>2745000000.0</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>2375000000.0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>2199000000.0</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>1767000000.0</v>
+      </c>
+      <c r="T9" s="0" t="n">
         <v>1348000000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>1807000000.0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1608000000.0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1913000000.0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1809000000.0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>2005000000.0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>2499000000.0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>2367000000.0</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>2680000000.0</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>2745000000.0</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>2375000000.0</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>2199000000.0</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>1767000000.0</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>1348000000.0</v>
-      </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>1360000000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>1386000000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>1517000000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>1285000000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>1153000000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>965000000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>904000000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>980000000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>786000000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>818000000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>940000000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>1156000000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>992000000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>1046000000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>847000000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>522000000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>654000000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>538000000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>416000000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>415000000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>348000000.0</v>
       </c>
     </row>
@@ -1312,16 +1340,14 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>3134000000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>3465000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>3763000000.0</v>
       </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1498,6 +1524,11 @@
         </is>
       </c>
       <c r="AN10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO10" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1510,120 +1541,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>89628000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>74752000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>67091000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>68317000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>67091000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>67749000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>65737000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>66031000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>67404000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>69779000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>72903000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>70399000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>68423000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>66939000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>64089000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>62360000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>61521000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>60979000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>61372000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>64246000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>68250000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>72672000000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>72515000000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>68925000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>64936000000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>60190000000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>53483000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>52154000000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>51105000000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>50192000000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>50155000000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>50905000000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>53331000000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>55958000000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>55763000000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>53661000000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>51351000000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>43719000000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>34205000000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>30875000000.0</v>
       </c>
     </row>
@@ -1634,120 +1668,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>13317000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>10822000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>9680000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>9893000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>9876000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>10222000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>10481000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>10336000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>10234000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>10348000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>13372000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>14279000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>15105000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>16414000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>15738000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>15709000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>15791000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>15762000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>15685000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>16449000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>17572000000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>18941000000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>19121000000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>18188000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>17128000000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>15728000000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>13973000000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>13599000000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>13398000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>13161000000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>13118000000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>13157000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>13659000000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>14211000000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>14030000000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>13528000000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>12734000000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>10737000000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>8283000000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>7268000000.0</v>
       </c>
     </row>
@@ -1758,120 +1795,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>76311000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>63930000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>57411000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>58424000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>57215000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>57527000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>55256000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>55695000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>57170000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>59431000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>59531000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>56120000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>53318000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>50525000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>48351000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>46651000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>45730000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>45217000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>45687000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>47797000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>50678000000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>53731000000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>53394000000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>50737000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>47808000000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>44462000000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>39510000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>38555000000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>37707000000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>37031000000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>37037000000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>37748000000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>39672000000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>41747000000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>41733000000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>40133000000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>38617000000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>32982000000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>25922000000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>23607000000.0</v>
       </c>
     </row>
@@ -1882,120 +1922,123 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>76311000000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>63930000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>57411000000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>58424000000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>57215000000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>57527000000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>55256000000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>55695000000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>57170000000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>59431000000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>59531000000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>56120000000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>53318000000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>50525000000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>48351000000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>46651000000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>45730000000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>45217000000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>45687000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>47797000000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>50678000000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>53731000000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>53394000000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>50737000000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>47808000000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>44462000000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>39510000000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>38555000000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>37707000000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>37031000000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>37037000000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>37748000000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>39672000000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>41747000000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>41733000000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>40133000000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>38617000000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>32982000000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>25922000000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>23607000000.0</v>
       </c>
     </row>
@@ -2006,120 +2049,123 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>3.7</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>3.27</v>
-      </c>
       <c r="D15" s="0" t="n">
-        <v>3.3025</v>
+        <v>3.28</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>3.2025</v>
+        <v>3.3125</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3.18</v>
+        <v>3.2125</v>
       </c>
       <c r="G15" s="0" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>2.985</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>2.9575</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>2.9975</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>3.0675</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>2.9925</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>2.7775</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>2.6075</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>2.4475</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>2.3125</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>2.2125</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>2.15</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>2.1</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>2.08</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>2.1525</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>2.26</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>2.3675</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>2.3125</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>2.1775</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>2.035</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>1.8675</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>1.6186</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>1.5579</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>1.5036</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>1.449</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>1.4254</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>1.4415</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>1.5097</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>1.5914</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>1.595</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>1.5367</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>1.4821</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>1.2693</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>1.0014</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>0.915</v>
       </c>
     </row>
@@ -2130,120 +2176,123 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>0.3893</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>0.3869</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>0.3794</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.3792</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>0.3804</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>0.3786</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.3782</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.379</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.3805</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.3821</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>0.3834</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.3827</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>0.383</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.3843</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.3847</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.3851</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>0.3841</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>0.3852</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>0.3908</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>0.3949</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>0.3981</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>0.4013</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>0.4006</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>0.3971</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>0.3966</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>0.3926</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>0.3859</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>0.384</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>0.3788</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>0.3741</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>0.3762</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>0.3827</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>0.395</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>0.4191</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>0.4387</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>0.4411</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>0.4395</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>0.4241</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>0.4048</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>0.3982</v>
       </c>
     </row>
@@ -2254,120 +2303,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>0.2734</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.2526</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>0.2418</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.2455</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.2448</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>0.2472</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.2457</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.2487</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.2534</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.2598</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.2669</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0.266</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>0.267</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.2687</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.2676</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>0.2684</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>0.2691</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>0.2715</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>0.2784</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.2855</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>0.2939</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>0.3028</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>0.3048</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>0.3021</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>0.3015</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.2967</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>0.2872</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.2884</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>0.2857</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>0.2831</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>0.2867</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>0.2946</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>0.3092</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>0.3346</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>0.353</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>0.3562</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>0.3569</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>0.3387</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>0.3122</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>0.3043</v>
       </c>
     </row>
@@ -2378,120 +2430,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>0.2756</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.2543</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.2447</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.2498</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.2504</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>0.2532</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.2527</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.2549</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.2608</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.2667</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>0.2745</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>0.2758</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>0.2765</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.2799</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>0.2796</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>0.279</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>0.2791</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>0.2796</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>0.2846</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.2916</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>0.3093</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>0.3103</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>0.3072</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>0.3061</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>0.3013</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>0.2926</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>0.2928</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>0.2903</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>0.2885</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>0.2935</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>0.3005</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>0.3154</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>0.3398</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>0.3563</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>0.3606</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>0.3607</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>0.342</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>0.316</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>0.3078</v>
       </c>
     </row>
@@ -2502,120 +2557,123 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>0.2347</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.2175</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.2094</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.2136</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.2136</v>
       </c>
       <c r="F19" s="0" t="n">
+        <v>0.2136</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>0.215</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.2124</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.215</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.2212</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.2272</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.2241</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.2198</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>0.2155</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.2112</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>0.2109</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>0.2087</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>0.2074</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>0.2073</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>0.2119</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>0.217</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>0.2227</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>0.2287</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.2285</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>0.2262</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>0.2253</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>0.2225</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>0.2161</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>0.2164</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>0.2142</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>0.2128</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>0.2167</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>0.2228</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>0.2346</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>0.2535</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>0.2667</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>0.2697</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>0.2713</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>0.258</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>0.2395</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.2353</v>
       </c>
     </row>
@@ -2626,120 +2684,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>0.2782</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>0.2729</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>0.2676</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>0.2622</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>0.2487</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>0.2391</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>0.2264</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>0.2249</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>0.2315</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>0.2369</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>0.2414</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>0.2332</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>0.2211</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>0.2231</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>0.2259</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>0.2347</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>0.2444</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>0.2455</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>0.2467</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>0.227</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>0.2425</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>0.2672</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>0.2986</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>0.3092</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>0.303</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>0.299</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>0.273</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>0.27</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>0.2618</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>0.2543</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>0.2609</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>0.2516</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>0.2604</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>0.2811</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>0.2649</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>0.2801</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>0.3133</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>0.2948</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>0.2779</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2750,120 +2811,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>96645000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>84827000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>76395000000.0</v>
-      </c>
       <c r="D21" s="0" t="n">
-        <v>77817000000.0</v>
+        <v>76663000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>77083000000.0</v>
+        <v>78085000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>77853000000.0</v>
+        <v>77351000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
+        <v>78121000000.0</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>76477000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>76545000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>77345000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>79523000000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>81801000000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>78533000000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>76378000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>74174000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>71501000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>70206000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>69715000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>69750000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>70529000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>73962000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>78498000000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>82791000000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>82487000000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>77879000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>72940000000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>67663000000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>60449000000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>59128000000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>57795000000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>56565000000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>55756000000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>55868000000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>57381000000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>59255000000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>58518000000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>55846000000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>53298000000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>45482000000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>35604000000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>32127000000.0</v>
       </c>
     </row>
@@ -2874,120 +2938,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>88903000000.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>74253000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>66288000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>67138000000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>65591000000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>66153000000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>63930000000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>64423000000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>65491000000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>67970000000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>70898000000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>67900000000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>66056000000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>64259000000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>61344000000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>59985000000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>59322000000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>59212000000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>60024000000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>62886000000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>66864000000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>71155000000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>71230000000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>67772000000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>63971000000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>59286000000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>52503000000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>51368000000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>50287000000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>49252000000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>48999000000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>49913000000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>52285000000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>55111000000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>55241000000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>53007000000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>50813000000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>43303000000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>33790000000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>30527000000.0</v>
       </c>
     </row>
@@ -2998,120 +3065,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>4.4649</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>3.7076</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>3.2753</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>3.2976</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>3.1973</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>3.1737</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>2.9715</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>2.9439</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>2.9827</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>3.0496</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>2.9765</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>2.7607</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>2.5926</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>2.4348</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>2.3017</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>2.2053</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>2.145</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>2.0955</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>2.0765</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>2.1455</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>2.2518</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>2.3587</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>2.3043</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>2.1701</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>2.0278</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>1.8615</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>1.6133</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>1.5527</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>1.4992</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>1.4445</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>1.4197</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>1.4292</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>1.4954</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>1.5743</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>1.5767</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>1.5195</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>1.465</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>1.2542</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>0.9885</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>0.9024</v>
       </c>
     </row>
@@ -3122,120 +3192,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>4.5129</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>3.7474</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>3.3085</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>3.3262</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>3.2233</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>3.1967</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>2.9915</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>2.9664</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>3.0069</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>3.0762</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>3.0034</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>2.7844</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>2.614</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>2.4539</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>2.3169</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>2.2184</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>2.157</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>2.1062</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>2.0878</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>2.1582</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>2.2659</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>2.3746</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>2.3201</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>2.1851</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>2.0415</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>1.8734</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>1.6232</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>1.5615</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>1.5076</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>1.4531</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>1.4296</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>1.4409</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>1.5091</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>1.5908</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>1.5944</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>1.5372</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>1.4825</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>1.2695</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>1.0017</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>0.9151</v>
       </c>
     </row>
@@ -3246,120 +3319,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>4.5129</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>3.7474</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>3.3085</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>3.3262</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>3.2233</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>3.1967</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>2.9915</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>2.9664</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>3.0069</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>3.0762</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>3.0034</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>2.7844</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>2.614</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>2.4539</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>2.3169</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>2.2184</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>2.157</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>2.1062</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>2.0878</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>2.1582</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>2.2659</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>2.3746</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>2.3201</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>2.1851</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>2.0415</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>1.8734</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>1.6232</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>1.5615</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>1.5076</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>1.4531</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>1.4296</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>1.4409</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>1.5091</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>1.5908</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>1.5944</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>1.5372</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>1.4825</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>1.2695</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>1.0017</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>0.9151</v>
       </c>
     </row>
@@ -3370,120 +3446,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>76311000000.0</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>63930000000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>57411000000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>58424000000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>57215000000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>57527000000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>55256000000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>55695000000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>57170000000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>59431000000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>59531000000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>56120000000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>53318000000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>50525000000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>48351000000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>46651000000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>45730000000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>45217000000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>45687000000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>47797000000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>50678000000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>53731000000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>53394000000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>50737000000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>47808000000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>44462000000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>39510000000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>38555000000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>37707000000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>37031000000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>37037000000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>37748000000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>39672000000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>41747000000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>41733000000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>40133000000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>38617000000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>32982000000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>25922000000.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>23607000000.0</v>
       </c>
     </row>
@@ -3494,120 +3573,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>76311000000.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>63930000000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>57411000000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>58424000000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>57215000000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>57527000000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>55256000000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>55695000000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>57170000000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>59431000000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>59531000000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>56120000000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>53318000000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>50525000000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>48351000000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>46651000000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>45730000000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>45217000000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>45687000000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>47797000000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>50678000000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>53731000000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>53394000000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>50737000000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>47808000000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>44462000000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>39510000000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>38555000000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>37707000000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>37031000000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>37037000000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>37748000000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>39672000000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>41747000000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>41733000000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>40133000000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>38617000000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>32982000000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>25922000000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>23607000000.0</v>
       </c>
     </row>
@@ -3618,120 +3700,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>0.2972</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>0.2886</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>0.2787</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>0.2845</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>0.2877</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>0.2909</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>0.2939</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>0.2955</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>0.2992</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>0.304</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>0.308</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>0.3076</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>0.3087</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>0.3101</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>0.3119</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>0.3141</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>0.3162</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>0.3198</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>0.3271</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>0.3358</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>0.345</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>0.3523</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>0.3529</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>0.3472</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>0.3438</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>0.3387</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>0.3307</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>0.3319</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>0.3283</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>0.3251</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>0.3262</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>0.3298</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>0.3393</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>0.3598</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>0.3739</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>0.3753</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>0.3744</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>0.3558</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>0.3289</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>0.3202</v>
       </c>
     </row>
@@ -3742,120 +3827,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>0.3062</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>0.3025</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>0.2943</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>0.2925</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>0.2813</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>0.2736</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>0.2667</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>0.2664</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>0.278</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>0.2899</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>0.2915</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>0.2886</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>0.2742</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>0.273</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>0.2802</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>0.2909</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>0.3038</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>0.3026</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>0.3071</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>0.2868</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>0.2968</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>0.3192</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>0.3477</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>0.3612</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>0.3597</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>0.3542</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>0.3267</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>0.3164</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>0.3064</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>0.3041</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>0.314</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>0.3122</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>0.3268</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>0.3445</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>0.3249</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>0.3504</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>0.3728</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>0.3544</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>0.3467</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>0.3268</v>
       </c>
     </row>

--- a/Income/AAPL_inc.xlsx
+++ b/Income/AAPL_inc.xlsx
@@ -2182,16 +2182,16 @@
         <v>0.3869</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.3794</v>
+        <v>0.3802</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.3792</v>
+        <v>0.3801</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3804</v>
+        <v>0.3812</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.3786</v>
+        <v>0.3795</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.3782</v>
@@ -2309,16 +2309,16 @@
         <v>0.2526</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2418</v>
+        <v>0.2417</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.2455</v>
+        <v>0.2454</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.2448</v>
+        <v>0.2447</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2472</v>
+        <v>0.2471</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.2457</v>
@@ -2436,16 +2436,16 @@
         <v>0.2543</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2447</v>
+        <v>0.2446</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2498</v>
+        <v>0.2497</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.2504</v>
+        <v>0.2503</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2532</v>
+        <v>0.2531</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2527</v>
@@ -2563,16 +2563,16 @@
         <v>0.2175</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2094</v>
+        <v>0.2093</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.2136</v>
+        <v>0.2135</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.2136</v>
+        <v>0.2135</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.215</v>
+        <v>0.2149</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2124</v>
@@ -2690,16 +2690,16 @@
         <v>0.2729</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.2676</v>
+        <v>0.2675</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.2622</v>
+        <v>0.2621</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.2487</v>
+        <v>0.2486</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2391</v>
+        <v>0.239</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.2264</v>
@@ -3706,16 +3706,16 @@
         <v>0.2886</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2787</v>
+        <v>0.2795</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2845</v>
+        <v>0.2854</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.2877</v>
+        <v>0.2886</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2909</v>
+        <v>0.2918</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.2939</v>
@@ -3833,16 +3833,16 @@
         <v>0.3025</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.2943</v>
+        <v>0.2942</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.2925</v>
+        <v>0.2924</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.2813</v>
+        <v>0.2812</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2736</v>
+        <v>0.2735</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.2667</v>
